--- a/results/Results Tallied.xlsx
+++ b/results/Results Tallied.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Workspaces\Java\NGramChecker\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>Results: *|Pass|* - Was able to suggest the intended correction "kikumpara"-&gt;"Kinukumpara" - Criteria is if within if within top 2 lowest scores.</t>
   </si>
@@ -74,10 +79,6 @@
     <t>Results: *|Pass|* - Was able to suggest the intended correction "nagka-loob" -&gt; "nagkaloob" - Criteria is if within if within top 2 lowest scores</t>
   </si>
   <si>
-    <t>Results: *|Fail|* - Slightly. The error is not caused by the grammar checker but by the limitations of the pos tagger and morphological analyzer in detecting
-invalid affixes such as partial reduplication for the word bigay.</t>
-  </si>
-  <si>
     <t>Results: *|Fail|* - 'para_sa Mark' was considered grammatically correct because of instances such as "para_sa Amerikano", "para_sa US" where the words
 'Mark', 'Amerikano', 'US' have the same pos tag: [NNP]</t>
   </si>
@@ -107,19 +108,10 @@
     <t>Results: *|Pass|* - Was able to suggest the intended correction "importanteng" -&gt; "importante" - Criteria is if within if within top 2 lowest scores.</t>
   </si>
   <si>
-    <t>Results: *|Fail|* - 'Insert 'ng' after 'bahay'' was suggested but it is the third suggestion with lowest edit distance because of substitution suggestions. How to deal with this?</t>
-  </si>
-  <si>
     <t>Results: *|Fail|* - Spell correction for 'matas' was not suggested because it had the tag 'NNC' which made the hybrid sequence grammatically correct.</t>
   </si>
   <si>
-    <t>- Criteria is if within if within top 2 lowest scores. How to deal with this?</t>
-  </si>
-  <si>
     <t>Results: *|Pass|* - 'Delete one 'ang'' was suggested - Criteria is if within if within top 2 lowest scores. How to deal with this?</t>
-  </si>
-  <si>
-    <t>- Criteria is if within if within top 2 lowest scores.</t>
   </si>
   <si>
     <t>Results: *|Pass|* - Merging 'nag' and 'isa' as 'nag-isa' was suggested - Criteria is if within if within top 2 lowest scores.</t>
@@ -145,13 +137,100 @@
   </si>
   <si>
     <t>Result - *|Pass|*</t>
+  </si>
+  <si>
+    <t>*|Pass|*</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Input Type</t>
+  </si>
+  <si>
+    <t>Erroneous</t>
+  </si>
+  <si>
+    <t>No Error</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>Error-free</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Incorrectly 
+Flagged</t>
+  </si>
+  <si>
+    <t>Correctly 
+Flagged</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Most of the suggestion requires a word-specific suggestion (ex. spelling correction, inflection correction, merging, unmerging, and even wrong word usage)
+This shows that a large amount of training data is important for this type of approach</t>
+  </si>
+  <si>
+    <t>Correctly
+Flagged
+Erroneous</t>
+  </si>
+  <si>
+    <t>Result Type</t>
+  </si>
+  <si>
+    <t>Suggestion
+Rank</t>
+  </si>
+  <si>
+    <t>Results: *|Fail|* - 'Insert 'ng' after 'bahay'' was suggested but it is the third suggestion with lowest edit distance because of substitution suggestions. 
+How to deal with this?</t>
+  </si>
+  <si>
+    <t>Incorrectly
+Flagged
+Erroneous</t>
+  </si>
+  <si>
+    <t>Results: *|Fail|* - Slightly. The error is not caused by the grammar checker but by the limitations of the pos tagger and morphological analyzer in detecting
+invalid affixes such as partial reduplication for the word bigay "bibigay".</t>
+  </si>
+  <si>
+    <t>Tagging
+Problem</t>
+  </si>
+  <si>
+    <t>Lack of 
+Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +238,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,11 +273,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,6 +292,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -242,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,468 +587,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="248.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="129.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
+        <f>COUNTIF(C15:C42,"TRUE")</f>
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <f>COUNTIF(C15:C42,"FALSE")</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <f>SUM($G2,$H2)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <f>COUNTIF(C44:C69,"TRUE")</f>
+        <v>21</v>
+      </c>
+      <c r="H3" s="2">
+        <f>COUNTIF(C44:C69,"FALSE")</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SUM($G3,$H3)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <f>SUM(G$2,G$3)</f>
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
+        <f>SUM(H$2,H$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SUM(I$2,I$3)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2">
+        <f>G4/I4*100</f>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2">
+        <f>G2/(G2+H3)*100</f>
+        <v>78.260869565217391</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2">
+        <f>G2/I2*100</f>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E14))</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E15))</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E16))</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E17))</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E18))</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E19))</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E20))</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E21))</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E22))</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E23))</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E24))</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E25))</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E26))</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E27))</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E28))</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E29))</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E30))</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E31))</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E32))</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E33))</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E34))</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E35))</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E36))</f>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E37))</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E38))</f>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E39))</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E40))</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E41))</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E42))</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>29</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E44))</f>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E45))</f>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E46))</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E47))</f>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E48))</f>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E49))</f>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E50))</f>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E51))</f>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E52))</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E53))</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E54))</f>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E55))</f>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E56))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E57))</f>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E58))</f>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E59))</f>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E60))</f>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E61))</f>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E62))</f>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E63))</f>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E64))</f>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E65))</f>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E66))</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E67))</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E68))</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="b">
+        <f>ISNUMBER(SEARCH($A$12,E69))</f>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -974,7 +1790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
